--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/29_Elazığ_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/29_Elazığ_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C52C9716-D07A-4863-B499-C118347F8D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DAB6964-46FA-4A5D-8B43-0791351499B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{D9C305C3-F6E5-4888-82DC-EA2CD150434B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{3FBEF4AE-ED4C-441D-BC56-B6BF4B76377B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{954E8CA2-26A1-4A43-AD59-42C5CCB7BFC3}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{123408B5-AB2C-4649-86C2-DE4D0746AD24}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9B8A4AF8-1C73-4B88-9919-95276D449A11}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{75249927-F8F1-4F72-A221-C8A153E208FB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F89243C4-183E-407A-BECB-401358E456EB}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{62309EB8-113B-4304-A6DB-BA8BD6E43EC3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{87F3ADFD-5571-46DB-A7C5-3D4A1BA34BDF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{689A558E-62FB-4DEB-B960-4229150882C3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A62284CA-6C3F-49D1-92C9-824F877F3E9A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5AD110C1-9D3E-4224-9FB6-4F7D286F4ADE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{41DCDD6E-D6B1-4EBB-8C55-0EB2FF400ED9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{36BB110B-17D9-47B0-AE65-3C64B9B4E7E2}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5D13F814-01F9-4464-A8A4-2377A8729993}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{595BAF13-5325-4125-A1D1-C05BF1ACA808}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB72CBC-0B52-4F2B-9EB3-3024CCA0EDDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEEF027-C6CF-4EBE-8F52-F4422806FC3B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2542,18 +2542,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67B95FDA-7F7A-46DE-94E7-FED7F3D1BED7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEBABB35-68FF-4A92-9CDB-2F84B3D64E9F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2AEC547C-DB82-4BF2-88AC-01226580A667}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EBDAB362-4E5D-475E-B728-863BCAEB77C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E5B6151-F608-475C-98EE-442CD6292905}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E30F0C7A-0113-40B2-86BF-76999E8BD07F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8D4DB3A-2312-478D-A9EC-6DE0F0CDE758}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD28E5C8-C6CF-4194-921B-446B074A8A2C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4A41D28-9569-4DD6-A57D-E62D9B7A903B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7BFC73E1-8612-4AA5-8E30-76D9C3252396}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15DE7578-976F-47B2-B6CC-8B6DF204CF86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B09BE5F-9BA0-4FC3-8C89-92CC8A9D8FF8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19D3B6E8-ECAB-4E08-8712-1F52D524594C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A50ED0FF-071B-4CEA-A4B5-87849383A024}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{32B6A151-3CB3-4D03-AC0E-AC0E933E6572}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FBA279B2-9658-4324-9560-84E18A441A81}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBF3370F-5DD9-471C-9C9A-3B91877BD31E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E80AD081-2D79-474E-A2DA-25E2895700BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{471E508B-AE46-44AE-83C1-C2AA7E637261}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A4160BF-2CEB-4A23-9B83-D786CFDFB52E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61E4343C-3D28-46E1-9161-58A69E2FA502}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C1B3B93-AABF-482F-86D2-9EBD3B9306BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBF532A7-FD68-4CA0-956F-8ACB6E2DAD7B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{364B4C8B-CF69-425F-9B99-0BC28E72FB64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2566,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1572EC-7259-433A-9751-D1BE79CBA1C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685C0A6E-28AE-4355-919C-F58F99F288A9}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3782,18 +3782,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00C43A28-DB8E-49DD-97B5-95725802E174}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F52CAE1-93C3-4D56-BB30-69ADC451D890}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A3B8F089-CEFC-41B7-A590-9FBFE8AEE54E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B6CDAF48-8D7D-44C1-8F58-EEE2655D810A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{593D8FEF-AD65-4332-B35D-884231255F45}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B42B441-84B8-45BA-A25F-014D6A04E683}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0E39F5E-ADC1-4541-A8C7-5A4E1B8CB18E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{265CBE9D-998C-4BBC-9282-4E690231DD2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9357BC70-FEAB-4F7D-8F10-7A0692FC82FE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4C2881C-107E-4D40-B5A4-19FBD99EF9DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F0AD37B-9D6C-4403-A2E6-BD25EA818B95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC186FD6-308C-4476-8EFA-627887725107}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBD76EA5-85D6-415C-A2EE-72A7C75FD070}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5A0645D-3755-4E4F-BD0E-FA0F6038C084}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F458205-A7C1-40F2-AF18-50547B3E6FD2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82C79D6A-E707-4D18-8FA2-82D4BC96BFA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B052AC8-552F-44A3-9DC0-662CC62AF332}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FCC49BFA-D85B-419B-8AA2-50E3520480D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97E26B82-FA03-4D31-9E4C-373BCFDF0879}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{189ACD84-5228-4955-B14D-9951887DA8B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA3ADECB-51E9-489B-BF36-39FEFA247246}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CAE3384D-1567-4C2A-B1C3-ACA34493C5D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1358136-E990-4765-9709-EAED472F198A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A443A9D8-9BB0-45BC-9A40-624949AEE271}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3806,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011E7EF9-52B5-4959-BDD8-CDAC59E05CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89503D39-D4CE-47EC-B4C2-8C14683B40D4}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5020,18 +5020,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFB26CBF-5BC0-4483-9C63-73D83B2E1A7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00F3BFDF-08A9-4367-99FA-314BFB9CC84D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{482E14B9-816D-4D5C-8CF6-D13FBA883D41}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB964442-A1B4-486E-A04D-876AF3C82CBD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F824B86B-30DB-4A9B-90DF-CABEAD18AC9B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{898971DB-AD08-4044-8706-C3C107DA2FDB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{035A8B02-EFF5-4BA1-938D-1F468997CDFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3F5EB17-7E9E-4913-B58E-1C21D9DAEE9F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB325063-0585-4F51-8C09-DD0928B53AEA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AC14D01-E6B4-48D5-A929-861CED67278A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF39BFD1-BD16-470E-AE94-30F50B2FF3C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B86A9F2-A8B7-4D40-9FAB-0F299FE4D4C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2C05C78-4EF5-4EDE-9148-4EEC604FF5CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F959581F-7BB7-4444-A2AC-CF7978A926AE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2EBDDE12-6B7D-40D9-B75F-9F23D7270C6A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7CD58B59-2D54-47BE-B995-4C36D11FB403}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B8DAD5E-93A8-4D91-8B89-9AE7B5609DBC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3D484AB9-3972-4E8B-A911-9E04B10CCF99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5474D3D-2F3B-470A-BA1F-A1BBA8E5F82E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BFF7630-D014-4B43-AF26-56A9620C9563}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DDDE56D-A466-4149-AFA1-C7DAB8501C64}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E317C859-142C-4718-9621-932476EDF882}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9B078DE-CE5B-4FC0-9213-E90E77EF633D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F57C2364-65C1-418A-85AA-1DF07DD7343D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5044,7 +5044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4938AB09-447E-489E-9547-BA6A740BAEAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5BCF1D-7A28-4E3B-B830-81EB9B0F99DE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6246,18 +6246,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59E47E84-9478-4D0D-A50F-D6D504E56598}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B597EDA4-8BD4-478E-8902-7EF986DDDD16}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D60C425D-4FE1-4FA7-9F50-194573346C10}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6A7BC231-4E85-4F1D-A9A0-0228EA47B63D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEE7D3E1-907E-4D43-8DC5-4965FB5B44FC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{87820A29-8346-4846-8CD0-7C5D967FFD71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BCB738C-CFC4-47E7-B661-A9FC32ED01D8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5F0EA9F-D181-444F-B456-F313BDA2D62C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B54AEE21-49D6-4878-9BC0-0088113214E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8264D483-E6BD-405B-B82B-15F71659E193}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C4D5BE0-E30C-4AB4-AE3A-BA38F0C7A916}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6C191FF-9A0C-4E27-A61F-AB88BFEE8E43}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1737578-21C3-4F9C-BFAB-570CCF239BFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29F6C74E-234D-4D47-AC6B-82A97D8540FE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F736426-BE34-4F6D-8CAB-EC2C90492559}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4F0D48D-BFD1-4997-B64E-FEC94A169074}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4405556-203B-43FF-9D63-CF3E821A25EE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CFF47D57-99ED-4E20-BFAA-568861B076E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07BFA2DB-774D-439C-BB47-BB083359BA6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D08219A-61B1-4456-B61F-43EAC9985042}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{169B8C34-F252-4F9D-BAE2-8BA96BF7EEB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E04A8480-BD47-4022-923E-21B34B12DFB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15F41B59-8507-458B-98BE-808BA65C7854}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FF99FF2-1101-4413-A11E-7BC0EFF3E1BC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6270,7 +6270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D0B02F-CD7D-4A0F-A552-A0CCF526D6E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60347D86-DC92-4E63-B2CD-7ADC3D990F0F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7497,18 +7497,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81D68B3D-52F5-4E2E-9E7F-04E60D161020}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{057FAD7D-D459-4625-B16C-6C7BB835E729}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A4A7433-9D1F-4033-9F41-F1EE923227C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E582F67-1DAD-4BC5-8560-5F0BB892C7CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3397F031-B469-4366-9651-64240942002A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9356251A-55ED-4632-95F7-D3DDEFCFE277}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E7052BD-E82D-4372-B7BE-314B3EC321ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5259B5E9-05FC-4F25-A8CD-3F5E2A9509E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6A2EC26-833C-4051-BED0-D1D3F8F87DCA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{477C66C4-F428-4716-B815-8C5530AB322A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{424E807E-60D9-4174-8581-E434E418FB64}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A47666C-D216-4FBC-833F-33271DEC991A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB476BE9-15FA-4D86-B108-BDFF54DD22F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A32BB9AF-0F21-45C7-B92C-354FCF61EA9D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7545EC9D-53F6-4B73-95CE-93790A589EE6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9798B00B-ADEA-4024-9E3A-771081C922DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F887F4C6-A2B3-4894-8A55-CA885E41E1DB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{393799F4-29CD-4BC1-93C3-79EA4698297E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B5F28C3-DB90-4170-8CDE-779069C36D26}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A7CC45C-C278-4EAF-A015-A9CF8968F80D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A24DA03C-EBA5-45E5-B3EF-CC06B66C01AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1F60E66-FEA8-4E40-B16B-D32FD9DECA7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60D26A9B-B239-47B6-A84F-0E5E4310D7CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC279A6B-A321-4F59-8B21-07CA5B3D4B77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7521,7 +7521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2C0FFA-D143-4834-B887-6FC3A935C8FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67D5074-BFD5-4EA4-898C-1B5674E79BBE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8746,18 +8746,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{851B7D03-601B-4614-B147-A3BE5B9D8FCA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44A00718-5A9B-410B-8076-904CF1CBF4A1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7BC0C028-5AD8-4CDD-8C22-F5B6CAFFA29B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{73CD11CF-A038-44B9-9D60-57057CA13A32}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9F40A01-BD5C-4740-BD9D-2A28B900CA8F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C09E95C8-F236-4DA0-B983-D8A01DA8FEA9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04FBF7FE-A41E-4884-88C9-182C41B47B71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4773174-A417-4B98-BBE2-1E1AB3E85398}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4734185-7DCF-4C1D-9811-FF4906B0D924}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C150FF64-A9C7-4C1F-A7BE-A6914FBC2EA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C794985-1CFE-4FAB-B433-1E07C411DCF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D80E1F40-EE47-49CC-805D-79D1A66EC51F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B42A660-8884-4D4F-985B-316EDE67D70F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA2DCFE1-0910-41E5-828B-403E287BFD67}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04836173-8199-400E-BCB4-DB1BD3A814AD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA4C2002-1C58-4D65-B683-B06FA1FB8443}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D3C1FC0-67C4-46C9-B192-026B1070F880}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58791E03-FFE2-4BC1-A525-D81F3342A49D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67D5D52E-8BAC-47E6-B8D3-ACE39518CB51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCD5C290-43B8-4B83-93F1-1EC310EFA82A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01806FA8-C037-4424-8933-E8B546A6AE1D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6D54C58-4CF4-460E-82BF-A2692E442B1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34A5524D-B799-4F28-B241-245E5AF7FAD7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{373DEC52-EC21-4493-A883-E2532C521A6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8770,7 +8770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B825314-9392-4F08-8967-F16A6C8D41D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091F6E82-A9C6-4BB6-B058-DFAD422724A3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9995,18 +9995,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04AE25AD-D260-47EA-A6AC-1F64120C6220}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EEE3E95-4FDB-40C4-BA35-ADC0D98781F6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{74937092-35C1-4ACE-8CDB-9D4D0F900E06}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{682871BA-8501-459F-924A-41BF8A686828}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF4143EA-0D1E-4C2E-9AF9-D579076BD362}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7CDB8688-47C2-4E0B-B431-9AC062FB5217}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA856B30-27EF-4807-8459-0B22B19F7AF6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B16E03BB-B6E5-4376-B941-60B00DBB89E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DAFB379B-8BCA-415D-AD89-53405FA83C6A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D9C50A54-555C-444E-8DC7-03DEC3C21D0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6796C8F4-CFF9-4381-9F8B-3B0C84E427DF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F620838E-6046-4398-90A9-E9473315D142}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54D41AC4-2D5F-4476-899E-557F032B9348}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E925061C-948B-44B2-AD4E-7D13E5EC9C6E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1AB3CA7-D013-4C3E-810A-8DF53292F406}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87111DAB-6648-429C-966B-BBD8BDF1A399}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{236AE032-AA9C-49E5-8B7A-D7261BCD93D2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{57FD13BB-A802-4116-8C16-FE3257416D71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DE9EEA7-1E8C-42D1-AFF1-10392595406E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C6F971A-5C0B-4619-824D-56FAF1FA1A4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3EEBD11-2382-4F0E-8E9A-AA575D8E1F56}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6432051B-3C9A-4784-A720-BBE102B2B07C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDF24157-BCA0-477B-B0A7-12BDE1975A79}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD3ACDD9-B3B7-43A6-9412-379D17DE0BAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10019,7 +10019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92A7B36-4EE2-465E-A641-F1DD72659F7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC258389-766F-472E-B79E-577CD6E8FAD9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11242,18 +11242,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7F43DE3-6989-4135-9AD2-7D45B6542FA0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4667ECF6-E6CB-4E03-BAD7-D18C88482664}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E53D2AA-82F6-49A5-85E9-A0AFC651AE56}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{96360CAD-C441-494D-A78D-B9C00CD20F7B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC74E665-87C2-43B1-9CB2-19D7EC83F9C3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{532E0CFC-C425-4435-A219-D2D2130A932A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EDE8EC3-4955-4440-A73D-1745E57C21EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9A1F6F1-41E3-418F-AB4A-84CAE80D26C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C47B29B-E7D6-4EE1-8BEC-478AA2274624}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4AB54D6-B170-477C-9E16-0BFB0E037D57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B34CA35-54C8-4A56-B232-7A396EAD174E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{616C9D75-32BC-4E5E-A948-0F14A76E3E63}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48D39A68-21BB-4269-9EC8-F7AF52AC828E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA0762E9-B0FA-464A-BBF5-7B2B2DD86822}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{236387BD-FB0F-4C5E-9088-2125DB6CE358}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{613A4EB7-0EA1-46E7-B034-3A3028A8401C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01B19742-CAF2-42D3-ADF8-B192BFE9F9E4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94D6FCF3-01AF-47B1-A3DA-4E46511677E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FD5E8F3-C766-408F-A5D1-4B03B72BD851}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B111867E-77C1-429A-A3A3-80817B96CC67}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FED43FBD-F327-40D2-9912-63EA5B4164A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2916BFE5-635E-4571-92B6-EE789BA22561}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA6BFFEC-A738-4901-909E-3597ACDDC70C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99E790E7-ABD8-4CF4-8FE9-CC34E9F4221B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11266,7 +11266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2539CA12-119B-4C46-9D2D-539D6495AA3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9570B-4A24-4C20-9BF7-06173B93BCF6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12489,18 +12489,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAD959EA-6604-47AB-85DE-8A610820A9C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79E08C99-6DB4-45BC-B85F-38D6E22CFCAC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDF55FE9-B28E-4C15-85FF-F4F771E96881}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DDB2998B-461E-4E18-9609-251B4508721C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FCEB18FC-09D6-4686-BDF2-6D15F7BC12AC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{111FCCA5-1FC4-49B3-8A35-26391B15F4DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93CF9489-3358-4B95-A950-749D1AB20E32}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45108388-2AC1-4DD7-B39E-6A1DAF59C22B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9F9C5F2-12E0-4FDA-9766-E89B9897365A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{228CD642-756F-46B5-9ABC-B0C888FBBD68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4ADAFF3-3FC0-445C-84EF-5834116340BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A06425E1-6A3A-4159-8772-BCE0D6B44674}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8B209FF-3E35-4F1F-9895-922295ABCE55}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{940B7984-9D3C-4251-8E60-0E717F9DED0B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63C21E0F-B5C3-4D08-89B4-EFF0C91D237A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5CAA6563-18C5-4904-9864-F6E4B413F454}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2577616-48EE-4993-BF79-8DB7D73DCC83}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D8EED88A-1201-40B8-A3AB-420DE2C87133}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A98B15F-9A5E-4261-BAED-5BB7928D65EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C04ADF4-11E7-40C9-8173-93F1138834E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B149972-8FC1-4566-8CBE-B525E99DC542}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45266DA3-050B-4ACC-A890-5E8C378A238E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E67C72B-0CAC-4F0F-A2FD-C6875FFF6135}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6F219A8-A683-47B8-BCA6-11D7EFE762BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12513,7 +12513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92246166-AFAA-4DD9-8C22-293FF39ADF35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73CC6E1-A577-45AB-AB15-63C627AD2359}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13736,18 +13736,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A755194-04D6-46A3-A013-6B1D0BA489F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB6E379E-A836-43DB-BFFA-B2A5F17C46C3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{33B3986E-B3DB-4B3B-9E38-6C4711723B1E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25F625FB-F499-4D60-9382-431AD8868FFD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F6F6F46-9985-450C-AC34-C458ED308A98}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6E2F8F39-5484-4187-8967-D04EAA9DEC67}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{693B8B11-A9ED-41CB-9212-2B6D2E9CCB74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E70C7C8C-27FC-43A0-918A-C9DB2C88033A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{121DC56F-E70A-4CF0-B108-1368D06E4330}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D3A50A9-0D4E-4F81-9DE3-C894999CB830}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{458F3A63-6556-4E91-8996-1A5C1085AC34}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A01BB77-1871-474E-AEFA-3A1FA266C1F5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3C4EEE2-9DEF-4138-A1A2-9A0404EADC24}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC67AF43-7B79-4BB3-A5CD-3CF6DB3DB895}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0E4A58C-7916-4020-927D-E0EC10710354}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2BB16783-6438-4A75-8BBE-94FA7F1D63C5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{968620CA-826D-4B6A-B78A-C9B8B89160BB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D72519EB-33F3-46B2-A475-4DED77EC2ACE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8DDB0D2-3C48-4F84-92B7-AF147F64227D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50CF993C-C5A6-45C3-859A-4E7A2335BB6F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AD0823E-6586-4CFF-A1D5-B98453442D60}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{597E0AB6-D5DE-4972-BAB3-D1EFB06BFA45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B7F06E4-8E58-4C1E-A2C7-5019FF103CBB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA3DDF0B-0D81-4D8A-8A64-5E93E3C12F61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13760,7 +13760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89745DE6-631A-4768-9C5D-2BEF0305E870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4F519-22B9-48D1-85F7-6A5B8470294D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14983,18 +14983,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19E1B68A-6D7D-4C7D-B59A-4D915A54ACD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7EE855AD-AA7A-43AC-829B-98A4733F51F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ED98FD81-7253-4D31-A0BB-BB3B025E0A9B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{247DC775-184F-4B97-BDDE-31FF257013FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2578F1EE-79C9-4AB5-B4C0-5C1AD49675AB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{13319333-9142-4DDB-B395-7E464CA02C5E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8644884E-EBA1-47FE-9060-15F28A610D8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A95D6E8F-F334-4162-95BC-898F9AF9DF9C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{448EDFCB-C69E-4A32-8E43-A31DAAC5CCE6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BEEC80D-0581-4D71-833C-50C0902F2F35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA169194-2716-4C34-9B05-6239F50CD69D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A4DF9DE-4E22-438D-91DB-93F8792DFE34}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D15E0990-0943-4F22-B296-18D3E75CC2D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EED40171-5577-41D7-B5D1-7D09E765D34A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{28DC5A65-FAA5-4930-9B4D-DE4044C9E533}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DC8BF90-38F2-4923-B427-3A5ED3CA892C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{225CAB74-31A5-43C1-9A22-B8FF93520905}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{30AECEB4-8335-469C-B0F3-D7E4386621EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0FCA3CB-2D14-4B4E-AAF1-2CDBD80A45A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{028FD55C-7D85-4B57-B41B-CEA5A762D4B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C335815D-0CB4-4156-8148-C25721A0B5B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{38F29500-F48A-4531-A397-7791456CE7F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2513AB0-8B29-4FA2-8FA5-3BF2C6DFBCDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6316CD2B-4F8D-4D29-99DD-CB79E4433206}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15007,7 +15007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A44C477-1DDA-48FE-BB22-AD689BE3D510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E04DD1-8821-4E08-AB26-0473E76AAACB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16232,18 +16232,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4776276-8B61-4714-9AFB-A3FE48633832}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EEE5C25-EE92-4B5D-9111-19BBEDF05EDA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D371602-6E24-4795-A2B0-8D26AB532ACE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CEDC5EAF-1562-4400-AC8B-71C9227C9E90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13D94F21-A0A2-427E-98D5-61A1B42F3E34}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6A1D0613-4A86-4AA4-A164-3DD78B7081FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A73DA5B9-CC6D-4437-B7DD-1BE48AAB22A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{401C2538-F867-447C-86B9-44C2D62B44F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F2388DD-8B39-4B0B-B420-68178F02AE06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E24E8C1-A24C-44FF-A151-7C62DE0A8D97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87416E12-9339-441B-BF93-E166B826CE07}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE347B89-3600-4CED-8073-CC04CE98DDCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39821AA2-FC10-432D-AA74-844B7F161437}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7631B985-6429-4573-BE6A-4DE3A43CC657}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B9BD156-586B-4D5B-B986-0899931990F7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{134ACB2C-7731-46CC-BB8C-D91CDF48F1A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97EBEDC1-F02C-44A3-A18C-27330E4405E2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1C83B01-80C5-46EE-A823-B5DD2F7685CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42329CEB-0AEC-48BB-98F3-F706531E103B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13225E2A-7D76-4ED2-A7D0-20CAC211DA00}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{693CD8BC-0B63-488C-AF23-0541B517A58F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47ED47AB-9326-44C7-8160-EB893121B4C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{493D526F-AEE9-4F74-A03D-3F99DC70FBBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CA934B1-C7CB-4409-8E5C-C05EFEDF0614}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
